--- a/LCDataDictionary.xlsx
+++ b/LCDataDictionary.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rgarciauribe/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TORRES_SANT\Documents\Programming\Data\lending_club_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24000" windowHeight="17480"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="24000" windowHeight="17484"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -23,9 +23,6 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1716,8 +1713,36 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2016,25 +2041,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="196.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="118.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="118.77734375" style="6" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>99</v>
       </c>
@@ -2042,7 +2067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>292</v>
       </c>
@@ -2051,7 +2076,7 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>296</v>
       </c>
@@ -2060,7 +2085,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -2069,7 +2094,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>286</v>
       </c>
@@ -2078,7 +2103,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -2087,7 +2112,7 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>254</v>
       </c>
@@ -2096,7 +2121,7 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>252</v>
       </c>
@@ -2105,7 +2130,7 @@
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2114,7 +2139,7 @@
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>297</v>
       </c>
@@ -2123,7 +2148,7 @@
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>298</v>
       </c>
@@ -2132,7 +2157,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>105</v>
       </c>
@@ -2141,7 +2166,7 @@
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>226</v>
       </c>
@@ -2150,7 +2175,7 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>106</v>
       </c>
@@ -2159,7 +2184,7 @@
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -2168,7 +2193,7 @@
       </c>
       <c r="C15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>299</v>
       </c>
@@ -2177,7 +2202,7 @@
       </c>
       <c r="C16" s="24"/>
     </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -2186,7 +2211,7 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2195,7 +2220,7 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>255</v>
       </c>
@@ -2204,7 +2229,7 @@
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -2213,7 +2238,7 @@
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -2222,7 +2247,7 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>166</v>
       </c>
@@ -2231,7 +2256,7 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
@@ -2240,7 +2265,7 @@
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
@@ -2249,7 +2274,7 @@
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2258,7 +2283,7 @@
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2267,7 +2292,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2276,7 +2301,7 @@
       </c>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -2285,7 +2310,7 @@
       </c>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -2294,7 +2319,7 @@
       </c>
       <c r="C29" s="24"/>
     </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>278</v>
       </c>
@@ -2303,7 +2328,7 @@
       </c>
       <c r="C30" s="24"/>
     </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -2312,7 +2337,7 @@
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>288</v>
       </c>
@@ -2321,7 +2346,7 @@
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>290</v>
       </c>
@@ -2330,7 +2355,7 @@
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
@@ -2339,7 +2364,7 @@
       </c>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
@@ -2348,7 +2373,7 @@
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
@@ -2357,7 +2382,7 @@
       </c>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
@@ -2368,7 +2393,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2377,7 +2402,7 @@
       </c>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>46</v>
       </c>
@@ -2386,7 +2411,7 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>47</v>
       </c>
@@ -2395,7 +2420,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
@@ -2404,7 +2429,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -2413,7 +2438,7 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -2422,7 +2447,7 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>14</v>
       </c>
@@ -2431,7 +2456,7 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>284</v>
       </c>
@@ -2440,7 +2465,7 @@
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>1</v>
       </c>
@@ -2452,7 +2477,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>300</v>
       </c>
@@ -2464,7 +2489,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>124</v>
       </c>
@@ -2476,7 +2501,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>125</v>
       </c>
@@ -2485,7 +2510,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>111</v>
       </c>
@@ -2494,7 +2519,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>301</v>
       </c>
@@ -2503,7 +2528,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
@@ -2512,7 +2537,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>108</v>
       </c>
@@ -2521,7 +2546,7 @@
       </c>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>28</v>
       </c>
@@ -2530,7 +2555,7 @@
       </c>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>274</v>
       </c>
@@ -2539,7 +2564,7 @@
       </c>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>302</v>
       </c>
@@ -2548,7 +2573,7 @@
       </c>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>303</v>
       </c>
@@ -2557,7 +2582,7 @@
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>305</v>
       </c>
@@ -2566,7 +2591,7 @@
       </c>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>306</v>
       </c>
@@ -2575,7 +2600,7 @@
       </c>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>44</v>
       </c>
@@ -2584,7 +2609,7 @@
       </c>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>104</v>
       </c>
@@ -2593,7 +2618,7 @@
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>116</v>
       </c>
@@ -2601,7 +2626,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>123</v>
       </c>
@@ -2609,7 +2634,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>117</v>
       </c>
@@ -2617,7 +2642,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>115</v>
       </c>
@@ -2625,7 +2650,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>122</v>
       </c>
@@ -2633,7 +2658,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>127</v>
       </c>
@@ -2641,7 +2666,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>102</v>
       </c>
@@ -2649,7 +2674,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>126</v>
       </c>
@@ -2657,7 +2682,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>109</v>
       </c>
@@ -2665,7 +2690,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>121</v>
       </c>
@@ -2673,7 +2698,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>120</v>
       </c>
@@ -2681,7 +2706,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>119</v>
       </c>
@@ -2691,7 +2716,7 @@
       <c r="C73"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>110</v>
       </c>
@@ -2699,7 +2724,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
@@ -2707,7 +2732,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>266</v>
       </c>
@@ -2715,7 +2740,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>270</v>
       </c>
@@ -2723,7 +2748,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>272</v>
       </c>
@@ -2731,7 +2756,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>268</v>
       </c>
@@ -2739,7 +2764,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>280</v>
       </c>
@@ -2747,7 +2772,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>282</v>
       </c>
@@ -2755,7 +2780,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>35</v>
       </c>
@@ -2763,7 +2788,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>36</v>
       </c>
@@ -2771,7 +2796,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>118</v>
       </c>
@@ -2779,7 +2804,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>307</v>
       </c>
@@ -2787,7 +2812,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>129</v>
       </c>
@@ -2795,7 +2820,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>30</v>
       </c>
@@ -2803,7 +2828,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>103</v>
       </c>
@@ -2811,7 +2836,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>18</v>
       </c>
@@ -2819,7 +2844,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>15</v>
       </c>
@@ -2827,7 +2852,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>225</v>
       </c>
@@ -2835,7 +2860,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>31</v>
       </c>
@@ -2843,7 +2868,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>32</v>
       </c>
@@ -2851,7 +2876,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>9</v>
       </c>
@@ -2859,7 +2884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>107</v>
       </c>
@@ -2867,7 +2892,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>5</v>
       </c>
@@ -2875,7 +2900,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>19</v>
       </c>
@@ -2883,7 +2908,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>128</v>
       </c>
@@ -2891,7 +2916,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>113</v>
       </c>
@@ -2899,7 +2924,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>112</v>
       </c>
@@ -2907,7 +2932,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>33</v>
       </c>
@@ -2915,7 +2940,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>308</v>
       </c>
@@ -2923,7 +2948,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>276</v>
       </c>
@@ -2931,7 +2956,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>309</v>
       </c>
@@ -2939,7 +2964,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>294</v>
       </c>
@@ -2947,7 +2972,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>100</v>
       </c>
@@ -2955,7 +2980,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>37</v>
       </c>
@@ -2963,7 +2988,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>38</v>
       </c>
@@ -2971,7 +2996,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>40</v>
       </c>
@@ -2979,7 +3004,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>41</v>
       </c>
@@ -2987,7 +3012,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>39</v>
       </c>
@@ -2995,7 +3020,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>217</v>
       </c>
@@ -3003,7 +3028,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>16</v>
       </c>
@@ -3011,7 +3036,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>295</v>
       </c>
@@ -3019,7 +3044,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>257</v>
       </c>
@@ -3027,7 +3052,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="18" t="s">
         <v>247</v>
       </c>
@@ -3035,7 +3060,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B118" s="13" t="s">
         <v>168</v>
       </c>
@@ -3063,14 +3088,14 @@
       <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="235.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="235.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="235.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="235.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>219</v>
       </c>
@@ -3078,7 +3103,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>183</v>
       </c>
@@ -3089,7 +3114,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>191</v>
       </c>
@@ -3100,7 +3125,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>192</v>
       </c>
@@ -3111,7 +3136,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>190</v>
       </c>
@@ -3122,7 +3147,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>286</v>
       </c>
@@ -3130,7 +3155,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>254</v>
       </c>
@@ -3140,7 +3165,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>180</v>
       </c>
@@ -3149,7 +3174,7 @@
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>252</v>
       </c>
@@ -3159,7 +3184,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>114</v>
       </c>
@@ -3170,7 +3195,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>193</v>
       </c>
@@ -3181,7 +3206,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>195</v>
       </c>
@@ -3191,7 +3216,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>105</v>
       </c>
@@ -3201,7 +3226,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>106</v>
       </c>
@@ -3212,7 +3237,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>187</v>
       </c>
@@ -3223,7 +3248,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>196</v>
       </c>
@@ -3234,7 +3259,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>197</v>
       </c>
@@ -3245,7 +3270,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -3256,7 +3281,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
@@ -3265,7 +3290,7 @@
       </c>
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>255</v>
       </c>
@@ -3276,7 +3301,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>198</v>
       </c>
@@ -3286,7 +3311,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>239</v>
       </c>
@@ -3297,7 +3322,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>166</v>
       </c>
@@ -3308,7 +3333,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>177</v>
       </c>
@@ -3319,7 +3344,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>185</v>
       </c>
@@ -3330,7 +3355,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>173</v>
       </c>
@@ -3341,7 +3366,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>200</v>
       </c>
@@ -3352,7 +3377,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>199</v>
       </c>
@@ -3363,7 +3388,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>171</v>
       </c>
@@ -3374,7 +3399,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>8</v>
       </c>
@@ -3385,7 +3410,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>179</v>
       </c>
@@ -3396,7 +3421,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>0</v>
       </c>
@@ -3406,7 +3431,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>278</v>
       </c>
@@ -3416,7 +3441,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>161</v>
       </c>
@@ -3427,7 +3452,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>216</v>
       </c>
@@ -3438,7 +3463,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>288</v>
       </c>
@@ -3449,7 +3474,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>290</v>
       </c>
@@ -3460,7 +3485,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>201</v>
       </c>
@@ -3471,7 +3496,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>7</v>
       </c>
@@ -3482,7 +3507,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>172</v>
       </c>
@@ -3493,7 +3518,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>182</v>
       </c>
@@ -3503,7 +3528,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>186</v>
       </c>
@@ -3513,7 +3538,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>170</v>
       </c>
@@ -3523,7 +3548,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>284</v>
       </c>
@@ -3533,7 +3558,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>169</v>
       </c>
@@ -3543,7 +3568,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>124</v>
       </c>
@@ -3554,7 +3579,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>125</v>
       </c>
@@ -3564,7 +3589,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>111</v>
       </c>
@@ -3574,7 +3599,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>208</v>
       </c>
@@ -3584,7 +3609,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>160</v>
       </c>
@@ -3594,7 +3619,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>108</v>
       </c>
@@ -3604,7 +3629,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>101</v>
       </c>
@@ -3614,7 +3639,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>274</v>
       </c>
@@ -3623,7 +3648,7 @@
       </c>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>202</v>
       </c>
@@ -3632,7 +3657,7 @@
       </c>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>203</v>
       </c>
@@ -3641,7 +3666,7 @@
       </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>204</v>
       </c>
@@ -3650,7 +3675,7 @@
       </c>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>207</v>
       </c>
@@ -3659,7 +3684,7 @@
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>205</v>
       </c>
@@ -3668,7 +3693,7 @@
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>206</v>
       </c>
@@ -3677,7 +3702,7 @@
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>104</v>
       </c>
@@ -3686,7 +3711,7 @@
       </c>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>116</v>
       </c>
@@ -3695,7 +3720,7 @@
       </c>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>123</v>
       </c>
@@ -3704,7 +3729,7 @@
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>117</v>
       </c>
@@ -3713,7 +3738,7 @@
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>115</v>
       </c>
@@ -3722,7 +3747,7 @@
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>122</v>
       </c>
@@ -3731,7 +3756,7 @@
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>127</v>
       </c>
@@ -3740,7 +3765,7 @@
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>102</v>
       </c>
@@ -3749,7 +3774,7 @@
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>126</v>
       </c>
@@ -3758,7 +3783,7 @@
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>109</v>
       </c>
@@ -3767,7 +3792,7 @@
       </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>121</v>
       </c>
@@ -3777,7 +3802,7 @@
       <c r="D70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>120</v>
       </c>
@@ -3786,7 +3811,7 @@
       </c>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>119</v>
       </c>
@@ -3795,7 +3820,7 @@
       </c>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>110</v>
       </c>
@@ -3805,7 +3830,7 @@
       <c r="D73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>266</v>
       </c>
@@ -3815,7 +3840,7 @@
       <c r="D74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>270</v>
       </c>
@@ -3825,7 +3850,7 @@
       <c r="D75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>272</v>
       </c>
@@ -3834,7 +3859,7 @@
       </c>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>268</v>
       </c>
@@ -3843,7 +3868,7 @@
       </c>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>280</v>
       </c>
@@ -3853,7 +3878,7 @@
       <c r="D78" s="6"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>282</v>
       </c>
@@ -3863,7 +3888,7 @@
       <c r="D79" s="6"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>209</v>
       </c>
@@ -3872,7 +3897,7 @@
       </c>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>118</v>
       </c>
@@ -3882,7 +3907,7 @@
       <c r="D81" s="6"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>194</v>
       </c>
@@ -3892,7 +3917,7 @@
       <c r="D82" s="6"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>103</v>
       </c>
@@ -3901,7 +3926,7 @@
       </c>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>210</v>
       </c>
@@ -3910,7 +3935,7 @@
       </c>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>18</v>
       </c>
@@ -3919,7 +3944,7 @@
       </c>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>189</v>
       </c>
@@ -3928,7 +3953,7 @@
       </c>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>188</v>
       </c>
@@ -3937,7 +3962,7 @@
       </c>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>212</v>
       </c>
@@ -3946,7 +3971,7 @@
       </c>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>213</v>
       </c>
@@ -3955,7 +3980,7 @@
       </c>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>174</v>
       </c>
@@ -3964,7 +3989,7 @@
       </c>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>176</v>
       </c>
@@ -3974,7 +3999,7 @@
       <c r="D91" s="6"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>107</v>
       </c>
@@ -3983,7 +4008,7 @@
       </c>
       <c r="D92"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>5</v>
       </c>
@@ -3993,7 +4018,7 @@
       <c r="D93" s="6"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>19</v>
       </c>
@@ -4001,7 +4026,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>128</v>
       </c>
@@ -4009,7 +4034,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>113</v>
       </c>
@@ -4017,7 +4042,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>112</v>
       </c>
@@ -4025,7 +4050,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>276</v>
       </c>
@@ -4033,7 +4058,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>294</v>
       </c>
@@ -4041,7 +4066,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>100</v>
       </c>
@@ -4049,7 +4074,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>217</v>
       </c>
@@ -4057,7 +4082,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>215</v>
       </c>
@@ -4065,7 +4090,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>211</v>
       </c>
@@ -4073,7 +4098,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>214</v>
       </c>
@@ -4081,7 +4106,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>16</v>
       </c>
@@ -4089,7 +4114,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>257</v>
       </c>
@@ -4097,7 +4122,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="22" t="s">
         <v>247</v>
       </c>
@@ -4105,7 +4130,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B109" s="13" t="s">
         <v>168</v>
       </c>
@@ -4132,13 +4157,13 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="225.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>227</v>
       </c>
@@ -4146,7 +4171,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>228</v>
       </c>
@@ -4154,7 +4179,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>229</v>
       </c>
@@ -4162,7 +4187,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>230</v>
       </c>
@@ -4170,7 +4195,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>243</v>
       </c>
@@ -4178,7 +4203,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>231</v>
       </c>
@@ -4186,7 +4211,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>245</v>
       </c>
@@ -4194,7 +4219,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>232</v>
       </c>
@@ -4202,7 +4227,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>233</v>
       </c>
@@ -4210,7 +4235,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>234</v>
       </c>
@@ -4218,11 +4243,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
     </row>
